--- a/data/sample_import_template-deepseek-v32.xlsx
+++ b/data/sample_import_template-deepseek-v32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B665A589-EA2A-41B9-B99B-1FA95AF93B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C10B5-CCCF-41F4-A25B-8F644A683DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -785,7 +785,7 @@
         <v>76</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>70</v>
